--- a/biology/Zoologie/Ampulex/Ampulex.xlsx
+++ b/biology/Zoologie/Ampulex/Ampulex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ampulex est un genre d'insectes hyménoptères de la famille des Ampulicidae. Bien que ce genre comporte plus d'une centaine d'espèces on n'en retrouve que deux en Europe, Ampulex fasciata et  Ampulex ruficollis.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (26 avril 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 avril 2020) :
 Ampulex aborensis Nurse, 1914
 Ampulex aenea Spinola, 1841
 Ampulex aeneola Bradley, 1934
